--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3879.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3879.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.029643956153713</v>
+        <v>2.084852457046509</v>
       </c>
       <c r="B1">
-        <v>2.70003280486055</v>
+        <v>2.449600696563721</v>
       </c>
       <c r="C1">
-        <v>2.730527120357348</v>
+        <v>2.959489345550537</v>
       </c>
       <c r="D1">
-        <v>3.228105475878914</v>
+        <v>5.225256443023682</v>
       </c>
       <c r="E1">
-        <v>2.678813802989112</v>
+        <v>3.43882942199707</v>
       </c>
     </row>
   </sheetData>
